--- a/data/trans_dic/P15D$nada-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15D$nada-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.171827922861248</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2338886490825431</v>
+        <v>0.2338886490825432</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04317031638608489</v>
+        <v>0.04501896133479336</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1078040909796419</v>
+        <v>0.1097064433414865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07695390306017068</v>
+        <v>0.07419908046664069</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.16713401012594</v>
+        <v>0.1723807068785946</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05919581142616583</v>
+        <v>0.05977371982820701</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2096291694696002</v>
+        <v>0.2150606281447769</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1014293275970619</v>
+        <v>0.09492793970266279</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1542285022426162</v>
+        <v>0.1529645936291035</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08643623315736804</v>
+        <v>0.08071649676623323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1935914403185001</v>
+        <v>0.1946627469938758</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1083266647457242</v>
+        <v>0.1092505467788778</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1809629046798004</v>
+        <v>0.1766492096465817</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3650081274173477</v>
+        <v>0.375453800770254</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3008743564358048</v>
+        <v>0.2966018022301146</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2963148117711732</v>
+        <v>0.285366905384586</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4331831083326366</v>
+        <v>0.4239865246093792</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2705998768581415</v>
+        <v>0.2660746009293409</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3853474627073753</v>
+        <v>0.3941934894183006</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2922306117256728</v>
+        <v>0.287035286546896</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2789704029270232</v>
+        <v>0.2832373595638145</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.257061921496281</v>
+        <v>0.2540750010501964</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3156392330047895</v>
+        <v>0.3144919832297866</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2449933797860125</v>
+        <v>0.2504831761123287</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2963135905267785</v>
+        <v>0.2940418054820621</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1777601895355695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09591055168744214</v>
+        <v>0.0959105516874421</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1796727446076296</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1758219823708753</v>
+        <v>0.1623723425314118</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1989136238381546</v>
+        <v>0.2032759606871114</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1120258120886473</v>
+        <v>0.1117724126811817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05484549658134599</v>
+        <v>0.0555455140084768</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06847705943922752</v>
+        <v>0.05576638583916418</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2153720315460388</v>
+        <v>0.2125856155844322</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0637996404533567</v>
+        <v>0.06208567807709728</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1164456454559702</v>
+        <v>0.1144933699762086</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1641654783847026</v>
+        <v>0.1619346527472473</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2234892262338889</v>
+        <v>0.2218603632785461</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1129802755375812</v>
+        <v>0.1084793587489614</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09435735806646209</v>
+        <v>0.09602661041741369</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3788014133027937</v>
+        <v>0.3722714581630342</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3282121969497316</v>
+        <v>0.3327340175615014</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2531801081010402</v>
+        <v>0.2543021232488473</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1553380470755955</v>
+        <v>0.1558966943983521</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3341817004114584</v>
+        <v>0.3438744711790093</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3930872877017849</v>
+        <v>0.3860992299959252</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2047562639508127</v>
+        <v>0.2138617080562105</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2509183389639207</v>
+        <v>0.2615834718451334</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3214331318746534</v>
+        <v>0.3258366398443951</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3273800931351181</v>
+        <v>0.3252704113002437</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2148215916071348</v>
+        <v>0.212009823844663</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1754442752626028</v>
+        <v>0.18272708492316</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2002578139072968</v>
+        <v>0.1937429480784085</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1576070937356008</v>
+        <v>0.1588170582146149</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02649174361905431</v>
+        <v>0.02689219484737101</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0721170352353203</v>
+        <v>0.08181138465958408</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06451115502597177</v>
+        <v>0.06578015776891925</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06922804653805399</v>
+        <v>0.06804148887253501</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03085980586038754</v>
+        <v>0.03161498239032737</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07801649614120167</v>
+        <v>0.07362708069057955</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1774313830775827</v>
+        <v>0.1811245795186138</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.149321825770081</v>
+        <v>0.1451293904011816</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04527849324265638</v>
+        <v>0.0422889196524106</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1030317170986317</v>
+        <v>0.1067147669976727</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6927865695434504</v>
+        <v>0.6726975538527343</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5691266745651671</v>
+        <v>0.5471948757970205</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3391266309121497</v>
+        <v>0.2935972748157541</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4123120188993937</v>
+        <v>0.4524834479737761</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5135957514888559</v>
+        <v>0.5374038056213299</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3668624660939978</v>
+        <v>0.3569999839147123</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.263618264318466</v>
+        <v>0.2664481539220253</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2550827345725807</v>
+        <v>0.2582842026361925</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5277643777824608</v>
+        <v>0.5481883404854533</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3972911978006022</v>
+        <v>0.3908552912462979</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2208356786680122</v>
+        <v>0.2205984154537166</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3063830910243747</v>
+        <v>0.3154554413103344</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1939422300684575</v>
+        <v>0.1815320839086485</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1998249225401675</v>
+        <v>0.2011599510458066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1151367242847329</v>
+        <v>0.1146702771002174</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1066874022859318</v>
+        <v>0.1032810379092722</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1009434212621744</v>
+        <v>0.1016480972577548</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2253725933352568</v>
+        <v>0.2271018087347884</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09337410973040168</v>
+        <v>0.09957699663614289</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1398920294914308</v>
+        <v>0.1430148250531585</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1754096104823861</v>
+        <v>0.1685577535267469</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2276609023219364</v>
+        <v>0.22969126128609</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1211841409566051</v>
+        <v>0.1178408273840953</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.133532454859509</v>
+        <v>0.1368500003792925</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3602895246098741</v>
+        <v>0.3402234738514942</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.307638855642505</v>
+        <v>0.3042302888640459</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2213431171092219</v>
+        <v>0.2193749089465225</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2041726108856502</v>
+        <v>0.2089536129373261</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2585302242957889</v>
+        <v>0.2500440193789143</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3432818640050471</v>
+        <v>0.3450642188261306</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1975778706328508</v>
+        <v>0.2041149012183035</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2253797263315457</v>
+        <v>0.2274046196752651</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2826283477042482</v>
+        <v>0.2813563759259844</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3035081132935225</v>
+        <v>0.305084601822756</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1994251234443437</v>
+        <v>0.1948742857585229</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1990475781707949</v>
+        <v>0.1996618019230997</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1087</v>
+        <v>1133</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8065</v>
+        <v>8207</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3517</v>
+        <v>3391</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6325</v>
+        <v>6523</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2695</v>
+        <v>2721</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>23450</v>
+        <v>24058</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7567</v>
+        <v>7082</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13036</v>
+        <v>12929</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6111</v>
+        <v>5707</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>36138</v>
+        <v>36338</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13032</v>
+        <v>13143</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22143</v>
+        <v>21616</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9189</v>
+        <v>9452</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22508</v>
+        <v>22188</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13542</v>
+        <v>13042</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16393</v>
+        <v>16045</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12320</v>
+        <v>12114</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>43107</v>
+        <v>44097</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21801</v>
+        <v>21413</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23579</v>
+        <v>23940</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18175</v>
+        <v>17964</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>58921</v>
+        <v>58707</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>29474</v>
+        <v>30134</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>36258</v>
+        <v>35980</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13803</v>
+        <v>12747</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36205</v>
+        <v>36999</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13575</v>
+        <v>13544</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7690</v>
+        <v>7788</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2400</v>
+        <v>1954</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>24488</v>
+        <v>24172</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5401</v>
+        <v>5256</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12929</v>
+        <v>12712</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>18640</v>
+        <v>18387</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>66090</v>
+        <v>65608</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>23256</v>
+        <v>22329</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>23707</v>
+        <v>24126</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>29737</v>
+        <v>29224</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>59739</v>
+        <v>60562</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30680</v>
+        <v>30816</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21781</v>
+        <v>21860</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11710</v>
+        <v>12050</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44695</v>
+        <v>43901</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17334</v>
+        <v>18105</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27859</v>
+        <v>29043</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>36497</v>
+        <v>36997</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>96812</v>
+        <v>96188</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>44218</v>
+        <v>43639</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>44079</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3885</v>
+        <v>3759</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4106</v>
+        <v>4138</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3005</v>
+        <v>3409</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>854</v>
+        <v>871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1992</v>
+        <v>1958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>957</v>
+        <v>980</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2749</v>
+        <v>2595</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5791</v>
+        <v>5911</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8187</v>
+        <v>7957</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2798</v>
+        <v>2614</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7924</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13440</v>
+        <v>13050</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14828</v>
+        <v>14257</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10444</v>
+        <v>9042</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17181</v>
+        <v>18855</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6798</v>
+        <v>7113</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10556</v>
+        <v>10273</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8174</v>
+        <v>8262</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8989</v>
+        <v>9102</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17224</v>
+        <v>17891</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>21783</v>
+        <v>21430</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>13648</v>
+        <v>13634</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23563</v>
+        <v>24261</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23870</v>
+        <v>22342</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>56525</v>
+        <v>56903</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22760</v>
+        <v>22668</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23442</v>
+        <v>22694</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9469</v>
+        <v>9535</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>57322</v>
+        <v>57762</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17766</v>
+        <v>18946</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32285</v>
+        <v>33006</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>38043</v>
+        <v>36557</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>122304</v>
+        <v>123394</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>47013</v>
+        <v>45716</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>60159</v>
+        <v>61653</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>44343</v>
+        <v>41874</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>87023</v>
+        <v>86059</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>43755</v>
+        <v>43366</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44863</v>
+        <v>45913</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24252</v>
+        <v>23456</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>87312</v>
+        <v>87765</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37592</v>
+        <v>38836</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>52015</v>
+        <v>52482</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>61297</v>
+        <v>61021</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>163050</v>
+        <v>163897</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>77366</v>
+        <v>75601</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>89674</v>
+        <v>89951</v>
       </c>
     </row>
     <row r="20">
